--- a/학습자료/단답형/객관식_영어_유의어_Day03.xlsx
+++ b/학습자료/단답형/객관식_영어_유의어_Day03.xlsx
@@ -449,14 +449,14 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>extinction
-1. 상, 소중한 것
-2. 절멸, 전멸, 소멸
-3. 우울, 불경기</t>
+1. 효율, 효능
+2. 해결책, 곤경
+3. 절멸, 전멸, 소멸</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2, 절멸, 전멸, 소멸</t>
+          <t>3, 절멸, 전멸, 소멸</t>
         </is>
       </c>
     </row>
@@ -464,14 +464,14 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>extermination
-1. 복잡
-2. 절멸, 전멸, 소멸
-3. 효율, 효능</t>
+1. 조심
+2. 떨어지다, 습격하다
+3. 절멸, 전멸, 소멸</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2, 절멸, 전멸, 소멸</t>
+          <t>3, 절멸, 전멸, 소멸</t>
         </is>
       </c>
     </row>
@@ -479,14 +479,14 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>annihilation
-1. 절멸, 전멸, 소멸
-2. 복잡
-3. 떨어지다, 습격하다</t>
+1. 요청하다, 요구하다
+2. 우울, 불경기
+3. 절멸, 전멸, 소멸</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1, 절멸, 전멸, 소멸</t>
+          <t>3, 절멸, 전멸, 소멸</t>
         </is>
       </c>
     </row>
@@ -495,13 +495,13 @@
         <is>
           <t>eradication
 1. 조심
-2. 절멸, 전멸, 소멸
-3. 복잡</t>
+2. 손해, 손상
+3. 절멸, 전멸, 소멸</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2, 절멸, 전멸, 소멸</t>
+          <t>3, 절멸, 전멸, 소멸</t>
         </is>
       </c>
     </row>
@@ -509,8 +509,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>disappearance
-1. 떨어지다, 습격하다
-2. 해결책, 곤경
+1. 손해, 손상
+2. 조심
 3. 절멸, 전멸, 소멸</t>
         </is>
       </c>
@@ -524,14 +524,14 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>depression
-1. 우울, 불경기
-2. 조심
-3. 복잡</t>
+1. 상, 소중한 것
+2. 해결책, 곤경
+3. 우울, 불경기</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1, 우울, 불경기</t>
+          <t>3, 우울, 불경기</t>
         </is>
       </c>
     </row>
@@ -539,14 +539,14 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>melancholy
-1. 상, 소중한 것
-2. 우울, 불경기
-3. 조심</t>
+1. 우울, 불경기
+2. 효율, 효능
+3. 복잡</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2, 우울, 불경기</t>
+          <t>1, 우울, 불경기</t>
         </is>
       </c>
     </row>
@@ -554,14 +554,14 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>dejection
-1. 우울, 불경기
-2. 떨어지다, 습격하다
-3. 요청하다, 요구하다</t>
+1. 절멸, 전멸, 소멸
+2. 해결책, 곤경
+3. 우울, 불경기</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1, 우울, 불경기</t>
+          <t>3, 우울, 불경기</t>
         </is>
       </c>
     </row>
@@ -569,14 +569,14 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>recession
-1. 복잡
-2. 효율, 효능
-3. 우울, 불경기</t>
+1. 우울, 불경기
+2. 해결책, 곤경
+3. 효율, 효능</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3, 우울, 불경기</t>
+          <t>1, 우울, 불경기</t>
         </is>
       </c>
     </row>
@@ -584,14 +584,14 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>slump
-1. 우울, 불경기
-2. 효율, 효능
-3. 해결책, 곤경</t>
+1. 요청하다, 요구하다
+2. 우울, 불경기
+3. 효율, 효능</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1, 우울, 불경기</t>
+          <t>2, 우울, 불경기</t>
         </is>
       </c>
     </row>
@@ -599,104 +599,104 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>stagnation
-1. 효율, 효능
-2. 우울, 불경기
-3. 상, 소중한 것</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2, 우울, 불경기</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>downturn
-1. 떨어지다, 습격하다
-2. 우울, 불경기
-3. 해결책, 곤경</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2, 우울, 불경기</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>efficiency
-1. 절멸, 전멸, 소멸
-2. 상, 소중한 것
-3. 효율, 효능</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>3, 효율, 효능</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>efficacy
-1. 조심
-2. 효율, 효능
-3. 우울, 불경기</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2, 효율, 효능</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>potency
-1. 조심
-2. 상, 소중한 것
-3. 효율, 효능</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>3, 효율, 효능</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>caution
-1. 조심
-2. 복잡
-3. 상, 소중한 것</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1, 조심</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>wariness
 1. 우울, 불경기
 2. 조심
 3. 효율, 효능</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1, 우울, 불경기</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>downturn
+1. 상, 소중한 것
+2. 우울, 불경기
+3. 요청하다, 요구하다</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2, 우울, 불경기</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>efficiency
+1. 요청하다, 요구하다
+2. 효율, 효능
+3. 절멸, 전멸, 소멸</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2, 효율, 효능</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>efficacy
+1. 우울, 불경기
+2. 효율, 효능
+3. 요청하다, 요구하다</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2, 효율, 효능</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>potency
+1. 해결책, 곤경
+2. 손해, 손상
+3. 효율, 효능</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>3, 효율, 효능</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>caution
+1. 효율, 효능
+2. 떨어지다, 습격하다
+3. 조심</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>3, 조심</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>wariness
+1. 복잡
+2. 효율, 효능
+3. 조심</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2, 조심</t>
+          <t>3, 조심</t>
         </is>
       </c>
     </row>
@@ -704,14 +704,14 @@
       <c r="A19" t="inlineStr">
         <is>
           <t>heed
-1. 복잡
-2. 조심
-3. 효율, 효능</t>
+1. 우울, 불경기
+2. 절멸, 전멸, 소멸
+3. 조심</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2, 조심</t>
+          <t>3, 조심</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
           <t>vigilance
 1. 조심
 2. 요청하다, 요구하다
-3. 우울, 불경기</t>
+3. 떨어지다, 습격하다</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -734,14 +734,14 @@
       <c r="A21" t="inlineStr">
         <is>
           <t>prudence
-1. 떨어지다, 습격하다
-2. 조심
-3. 요청하다, 요구하다</t>
+1. 조심
+2. 요청하다, 요구하다
+3. 우울, 불경기</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2, 조심</t>
+          <t>1, 조심</t>
         </is>
       </c>
     </row>
@@ -749,14 +749,14 @@
       <c r="A22" t="inlineStr">
         <is>
           <t>fix
-1. 조심
-2. 우울, 불경기
-3. 해결책, 곤경</t>
+1. 요청하다, 요구하다
+2. 해결책, 곤경
+3. 효율, 효능</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3, 해결책, 곤경</t>
+          <t>2, 해결책, 곤경</t>
         </is>
       </c>
     </row>
@@ -764,14 +764,14 @@
       <c r="A23" t="inlineStr">
         <is>
           <t>solution
-1. 손해, 손상
-2. 떨어지다, 습격하다
-3. 해결책, 곤경</t>
+1. 해결책, 곤경
+2. 절멸, 전멸, 소멸
+3. 복잡</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3, 해결책, 곤경</t>
+          <t>1, 해결책, 곤경</t>
         </is>
       </c>
     </row>
@@ -779,8 +779,8 @@
       <c r="A24" t="inlineStr">
         <is>
           <t>remedy
-1. 요청하다, 요구하다
-2. 우울, 불경기
+1. 효율, 효능
+2. 조심
 3. 해결책, 곤경</t>
         </is>
       </c>
@@ -794,9 +794,9 @@
       <c r="A25" t="inlineStr">
         <is>
           <t>antidote
-1. 효율, 효능
+1. 요청하다, 요구하다
 2. 해결책, 곤경
-3. 요청하다, 요구하다</t>
+3. 복잡</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -810,8 +810,8 @@
         <is>
           <t>answer
 1. 해결책, 곤경
-2. 효율, 효능
-3. 우울, 불경기</t>
+2. 요청하다, 요구하다
+3. 조심</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -824,14 +824,14 @@
       <c r="A27" t="inlineStr">
         <is>
           <t>predicament
-1. 우울, 불경기
-2. 해결책, 곤경
-3. 절멸, 전멸, 소멸</t>
+1. 해결책, 곤경
+2. 복잡
+3. 떨어지다, 습격하다</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2, 해결책, 곤경</t>
+          <t>1, 해결책, 곤경</t>
         </is>
       </c>
     </row>
@@ -839,14 +839,14 @@
       <c r="A28" t="inlineStr">
         <is>
           <t>difficulty
-1. 손해, 손상
-2. 해결책, 곤경
-3. 상, 소중한 것</t>
+1. 떨어지다, 습격하다
+2. 상, 소중한 것
+3. 해결책, 곤경</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2, 해결책, 곤경</t>
+          <t>3, 해결책, 곤경</t>
         </is>
       </c>
     </row>
@@ -854,14 +854,14 @@
       <c r="A29" t="inlineStr">
         <is>
           <t>plight
-1. 해결책, 곤경
-2. 절멸, 전멸, 소멸
-3. 손해, 손상</t>
+1. 떨어지다, 습격하다
+2. 해결책, 곤경
+3. 우울, 불경기</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1, 해결책, 곤경</t>
+          <t>2, 해결책, 곤경</t>
         </is>
       </c>
     </row>
@@ -869,14 +869,14 @@
       <c r="A30" t="inlineStr">
         <is>
           <t>quandary
-1. 복잡
-2. 해결책, 곤경
-3. 떨어지다, 습격하다</t>
+1. 해결책, 곤경
+2. 복잡
+3. 상, 소중한 것</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2, 해결책, 곤경</t>
+          <t>1, 해결책, 곤경</t>
         </is>
       </c>
     </row>
@@ -884,29 +884,29 @@
       <c r="A31" t="inlineStr">
         <is>
           <t>damage
-1. 떨어지다, 습격하다
-2. 절멸, 전멸, 소멸
-3. 손해, 손상</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>3, 손해, 손상</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>garm
 1. 조심
 2. 손해, 손상
 3. 절멸, 전멸, 소멸</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2, 손해, 손상</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>garm
+1. 떨어지다, 습격하다
+2. 효율, 효능
+3. 손해, 손상</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2, 손해, 손상</t>
+          <t>3, 손해, 손상</t>
         </is>
       </c>
     </row>
@@ -914,434 +914,434 @@
       <c r="A33" t="inlineStr">
         <is>
           <t>detriment
-1. 복잡
+1. 떨어지다, 습격하다
+2. 효율, 효능
+3. 손해, 손상</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>3, 손해, 손상</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>disfigurement
+1. 우울, 불경기
+2. 상, 소중한 것
+3. 손해, 손상</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>3, 손해, 손상</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>mischief
+1. 요청하다, 요구하다
+2. 효율, 효능
+3. 손해, 손상</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>3, 손해, 손상</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>prize
+1. 효율, 효능
+2. 조심
+3. 상, 소중한 것</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>3, 상, 소중한 것</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>award
+1. 효율, 효능
+2. 떨어지다, 습격하다
+3. 상, 소중한 것</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>3, 상, 소중한 것</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>reward
+1. 떨어지다, 습격하다
+2. 해결책, 곤경
+3. 상, 소중한 것</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>3, 상, 소중한 것</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>treasure
+1. 상, 소중한 것
 2. 손해, 손상
 3. 효율, 효능</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2, 손해, 손상</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>disfigurement
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1, 상, 소중한 것</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>accolade
 1. 손해, 손상
-2. 우울, 불경기
-3. 해결책, 곤경</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>1, 손해, 손상</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>mischief
-1. 우울, 불경기
 2. 조심
+3. 상, 소중한 것</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>3, 상, 소중한 것</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>complication
+1. 절멸, 전멸, 소멸
+2. 복잡
 3. 손해, 손상</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>3, 손해, 손상</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>prize
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2, 복잡</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>complexity
+1. 복잡
+2. 효율, 효능
+3. 절멸, 전멸, 소멸</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1, 복잡</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>intricacy
 1. 효율, 효능
-2. 우울, 불경기
-3. 상, 소중한 것</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>3, 상, 소중한 것</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>award
-1. 상, 소중한 것
-2. 떨어지다, 습격하다
-3. 조심</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>1, 상, 소중한 것</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>reward
-1. 상, 소중한 것
+2. 복잡
+3. 절멸, 전멸, 소멸</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2, 복잡</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>involution
+1. 효율, 효능
+2. 복잡
+3. 절멸, 전멸, 소멸</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2, 복잡</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>fall on
+1. 복잡
+2. 조심
+3. 떨어지다, 습격하다</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>3, 떨어지다, 습격하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>fall from
+1. 떨어지다, 습격하다
+2. 효율, 효능
+3. 요청하다, 요구하다</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1, 떨어지다, 습격하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>come off
+1. 효율, 효능
+2. 요청하다, 요구하다
+3. 떨어지다, 습격하다</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>3, 떨어지다, 습격하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>pitch
+1. 떨어지다, 습격하다
+2. 해결책, 곤경
+3. 효율, 효능</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1, 떨어지다, 습격하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>chop upon
+1. 떨어지다, 습격하다
+2. 복잡
+3. 손해, 손상</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1, 떨어지다, 습격하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>attack
+1. 해결책, 곤경
+2. 복잡
+3. 떨어지다, 습격하다</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>3, 떨어지다, 습격하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>assault
+1. 절멸, 전멸, 소멸
 2. 손해, 손상
 3. 떨어지다, 습격하다</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>1, 상, 소중한 것</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>treasure
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>3, 떨어지다, 습격하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>assail
+1. 떨어지다, 습격하다
+2. 손해, 손상
+3. 효율, 효능</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1, 떨어지다, 습격하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>call for
 1. 요청하다, 요구하다
 2. 절멸, 전멸, 소멸
-3. 상, 소중한 것</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>3, 상, 소중한 것</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>accolade
-1. 상, 소중한 것
-2. 우울, 불경기
-3. 복잡</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>1, 상, 소중한 것</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>complication
+3. 해결책, 곤경</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1, 요청하다, 요구하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>call on
 1. 복잡
 2. 요청하다, 요구하다
-3. 우울, 불경기</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>1, 복잡</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>complexity
+3. 해결책, 곤경</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2, 요청하다, 요구하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ask for
+1. 상, 소중한 것
+2. 요청하다, 요구하다
+3. 손해, 손상</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2, 요청하다, 요구하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>put in for
+1. 우울, 불경기
+2. 상, 소중한 것
+3. 요청하다, 요구하다</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>3, 요청하다, 요구하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>summon
 1. 요청하다, 요구하다
-2. 복잡
-3. 절멸, 전멸, 소멸</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2, 복잡</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>intricacy
-1. 복잡
-2. 조심
-3. 해결책, 곤경</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>1, 복잡</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>involution
-1. 절멸, 전멸, 소멸
+2. 상, 소중한 것
+3. 조심</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1, 요청하다, 요구하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>necessitate
+1. 떨어지다, 습격하다
+2. 절멸, 전멸, 소멸
+3. 요청하다, 요구하다</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>3, 요청하다, 요구하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>demand
+1. 조심
+2. 절멸, 전멸, 소멸
+3. 요청하다, 요구하다</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>3, 요청하다, 요구하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>stipulate
+1. 요청하다, 요구하다
+2. 해결책, 곤경
+3. 상, 소중한 것</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1, 요청하다, 요구하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>enjoin
+1. 요청하다, 요구하다
 2. 떨어지다, 습격하다
 3. 복잡</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>3, 복잡</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>fall on
-1. 떨어지다, 습격하다
-2. 효율, 효능
-3. 해결책, 곤경</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>1, 떨어지다, 습격하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>fall from
-1. 효율, 효능
-2. 복잡
-3. 떨어지다, 습격하다</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>3, 떨어지다, 습격하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>come off
-1. 손해, 손상
-2. 우울, 불경기
-3. 떨어지다, 습격하다</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>3, 떨어지다, 습격하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>pitch
-1. 떨어지다, 습격하다
-2. 손해, 손상
-3. 요청하다, 요구하다</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>1, 떨어지다, 습격하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>chop upon
-1. 우울, 불경기
-2. 해결책, 곤경
-3. 떨어지다, 습격하다</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>3, 떨어지다, 습격하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>attack
-1. 떨어지다, 습격하다
-2. 해결책, 곤경
-3. 요청하다, 요구하다</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>1, 떨어지다, 습격하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>assault
-1. 복잡
-2. 상, 소중한 것
-3. 떨어지다, 습격하다</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>3, 떨어지다, 습격하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>assail
-1. 효율, 효능
-2. 떨어지다, 습격하다
-3. 조심</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2, 떨어지다, 습격하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>call for
-1. 떨어지다, 습격하다
-2. 조심
-3. 요청하다, 요구하다</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>3, 요청하다, 요구하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>call on
-1. 효율, 효능
-2. 복잡
-3. 요청하다, 요구하다</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>3, 요청하다, 요구하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>ask for
-1. 요청하다, 요구하다
-2. 절멸, 전멸, 소멸
-3. 우울, 불경기</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>1, 요청하다, 요구하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>put in for
-1. 우울, 불경기
-2. 효율, 효능
-3. 요청하다, 요구하다</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>3, 요청하다, 요구하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>summon
-1. 우울, 불경기
-2. 떨어지다, 습격하다
-3. 요청하다, 요구하다</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>3, 요청하다, 요구하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>necessitate
-1. 효율, 효능
-2. 요청하다, 요구하다
-3. 조심</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2, 요청하다, 요구하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>demand
-1. 요청하다, 요구하다
-2. 손해, 손상
-3. 상, 소중한 것</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>1, 요청하다, 요구하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>stipulate
-1. 절멸, 전멸, 소멸
-2. 해결책, 곤경
-3. 요청하다, 요구하다</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>3, 요청하다, 요구하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>enjoin
-1. 손해, 손상
-2. 요청하다, 요구하다
-3. 우울, 불경기</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2, 요청하다, 요구하다</t>
         </is>
       </c>
     </row>
@@ -1349,14 +1349,14 @@
       <c r="A62" t="inlineStr">
         <is>
           <t>require
-1. 조심
-2. 요청하다, 요구하다
-3. 해결책, 곤경</t>
+1. 절멸, 전멸, 소멸
+2. 상, 소중한 것
+3. 요청하다, 요구하다</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2, 요청하다, 요구하다</t>
+          <t>3, 요청하다, 요구하다</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/객관식_영어_유의어_Day03.xlsx
+++ b/학습자료/단답형/객관식_영어_유의어_Day03.xlsx
@@ -449,14 +449,14 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>extinction
-1. 효율, 효능
-2. 해결책, 곤경
-3. 절멸, 전멸, 소멸</t>
+1. 절멸, 전멸, 소멸
+2. 우울, 불경기
+3. 조심</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3, 절멸, 전멸, 소멸</t>
+          <t>1, 절멸, 전멸, 소멸</t>
         </is>
       </c>
     </row>
@@ -464,8 +464,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>extermination
-1. 조심
-2. 떨어지다, 습격하다
+1. 요청하다, 요구하다
+2. 손해, 손상
 3. 절멸, 전멸, 소멸</t>
         </is>
       </c>
@@ -480,13 +480,13 @@
         <is>
           <t>annihilation
 1. 요청하다, 요구하다
-2. 우울, 불경기
-3. 절멸, 전멸, 소멸</t>
+2. 절멸, 전멸, 소멸
+3. 우울, 불경기</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3, 절멸, 전멸, 소멸</t>
+          <t>2, 절멸, 전멸, 소멸</t>
         </is>
       </c>
     </row>
@@ -494,233 +494,233 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>eradication
+1. 요청하다, 요구하다
+2. 절멸, 전멸, 소멸
+3. 조심</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2, 절멸, 전멸, 소멸</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>disappearance
+1. 절멸, 전멸, 소멸
+2. 우울, 불경기
+3. 요청하다, 요구하다</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1, 절멸, 전멸, 소멸</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>depression
+1. 우울, 불경기
+2. 떨어지다, 습격하다
+3. 해결책, 곤경</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1, 우울, 불경기</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>melancholy
+1. 상, 소중한 것
+2. 복잡
+3. 우울, 불경기</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3, 우울, 불경기</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>dejection
+1. 상, 소중한 것
+2. 우울, 불경기
+3. 해결책, 곤경</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2, 우울, 불경기</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>recession
+1. 우울, 불경기
+2. 절멸, 전멸, 소멸
+3. 손해, 손상</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1, 우울, 불경기</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>slump
+1. 해결책, 곤경
+2. 우울, 불경기
+3. 효율, 효능</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2, 우울, 불경기</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>stagnation
+1. 조심
+2. 해결책, 곤경
+3. 우울, 불경기</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3, 우울, 불경기</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>downturn
+1. 우울, 불경기
+2. 상, 소중한 것
+3. 조심</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1, 우울, 불경기</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>efficiency
+1. 절멸, 전멸, 소멸
+2. 손해, 손상
+3. 효율, 효능</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3, 효율, 효능</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>efficacy
+1. 효율, 효능
+2. 복잡
+3. 우울, 불경기</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1, 효율, 효능</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>potency
+1. 조심
+2. 효율, 효능
+3. 떨어지다, 습격하다</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2, 효율, 효능</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>caution
+1. 손해, 손상
+2. 조심
+3. 우울, 불경기</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2, 조심</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>wariness
+1. 절멸, 전멸, 소멸
+2. 조심
+3. 우울, 불경기</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2, 조심</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>heed
+1. 우울, 불경기
+2. 요청하다, 요구하다
+3. 조심</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>3, 조심</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>vigilance
 1. 조심
 2. 손해, 손상
-3. 절멸, 전멸, 소멸</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>3, 절멸, 전멸, 소멸</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>disappearance
-1. 손해, 손상
-2. 조심
-3. 절멸, 전멸, 소멸</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>3, 절멸, 전멸, 소멸</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>depression
-1. 상, 소중한 것
-2. 해결책, 곤경
-3. 우울, 불경기</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>3, 우울, 불경기</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>melancholy
-1. 우울, 불경기
-2. 효율, 효능
-3. 복잡</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1, 우울, 불경기</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>dejection
-1. 절멸, 전멸, 소멸
-2. 해결책, 곤경
-3. 우울, 불경기</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>3, 우울, 불경기</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>recession
-1. 우울, 불경기
-2. 해결책, 곤경
-3. 효율, 효능</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1, 우울, 불경기</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>slump
-1. 요청하다, 요구하다
-2. 우울, 불경기
-3. 효율, 효능</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2, 우울, 불경기</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>stagnation
-1. 우울, 불경기
-2. 조심
-3. 효율, 효능</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1, 우울, 불경기</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>downturn
-1. 상, 소중한 것
-2. 우울, 불경기
-3. 요청하다, 요구하다</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2, 우울, 불경기</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>efficiency
-1. 요청하다, 요구하다
-2. 효율, 효능
-3. 절멸, 전멸, 소멸</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2, 효율, 효능</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>efficacy
-1. 우울, 불경기
-2. 효율, 효능
-3. 요청하다, 요구하다</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2, 효율, 효능</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>potency
-1. 해결책, 곤경
-2. 손해, 손상
-3. 효율, 효능</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>3, 효율, 효능</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>caution
-1. 효율, 효능
-2. 떨어지다, 습격하다
-3. 조심</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>3, 조심</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>wariness
-1. 복잡
-2. 효율, 효능
-3. 조심</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>3, 조심</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>heed
-1. 우울, 불경기
-2. 절멸, 전멸, 소멸
-3. 조심</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>3, 조심</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>vigilance
-1. 조심
-2. 요청하다, 요구하다
 3. 떨어지다, 습격하다</t>
         </is>
       </c>
@@ -734,14 +734,14 @@
       <c r="A21" t="inlineStr">
         <is>
           <t>prudence
-1. 조심
-2. 요청하다, 요구하다
-3. 우울, 불경기</t>
+1. 복잡
+2. 해결책, 곤경
+3. 조심</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1, 조심</t>
+          <t>3, 조심</t>
         </is>
       </c>
     </row>
@@ -750,13 +750,13 @@
         <is>
           <t>fix
 1. 요청하다, 요구하다
-2. 해결책, 곤경
-3. 효율, 효능</t>
+2. 상, 소중한 것
+3. 해결책, 곤경</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2, 해결책, 곤경</t>
+          <t>3, 해결책, 곤경</t>
         </is>
       </c>
     </row>
@@ -764,44 +764,44 @@
       <c r="A23" t="inlineStr">
         <is>
           <t>solution
-1. 해결책, 곤경
-2. 절멸, 전멸, 소멸
-3. 복잡</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>1, 해결책, 곤경</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>remedy
-1. 효율, 효능
-2. 조심
-3. 해결책, 곤경</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>3, 해결책, 곤경</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>antidote
 1. 요청하다, 요구하다
 2. 해결책, 곤경
 3. 복잡</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2, 해결책, 곤경</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>remedy
+1. 손해, 손상
+2. 해결책, 곤경
+3. 떨어지다, 습격하다</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2, 해결책, 곤경</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>antidote
+1. 효율, 효능
+2. 상, 소중한 것
+3. 해결책, 곤경</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2, 해결책, 곤경</t>
+          <t>3, 해결책, 곤경</t>
         </is>
       </c>
     </row>
@@ -809,41 +809,41 @@
       <c r="A26" t="inlineStr">
         <is>
           <t>answer
-1. 해결책, 곤경
-2. 요청하다, 요구하다
-3. 조심</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>1, 해결책, 곤경</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>predicament
-1. 해결책, 곤경
-2. 복잡
-3. 떨어지다, 습격하다</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>1, 해결책, 곤경</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>difficulty
 1. 떨어지다, 습격하다
 2. 상, 소중한 것
 3. 해결책, 곤경</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>3, 해결책, 곤경</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>predicament
+1. 해결책, 곤경
+2. 조심
+3. 절멸, 전멸, 소멸</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1, 해결책, 곤경</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>difficulty
+1. 상, 소중한 것
+2. 손해, 손상
+3. 해결책, 곤경</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>3, 해결책, 곤경</t>
@@ -854,14 +854,14 @@
       <c r="A29" t="inlineStr">
         <is>
           <t>plight
-1. 떨어지다, 습격하다
-2. 해결책, 곤경
-3. 우울, 불경기</t>
+1. 해결책, 곤경
+2. 상, 소중한 것
+3. 복잡</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2, 해결책, 곤경</t>
+          <t>1, 해결책, 곤경</t>
         </is>
       </c>
     </row>
@@ -869,161 +869,161 @@
       <c r="A30" t="inlineStr">
         <is>
           <t>quandary
+1. 복잡
+2. 효율, 효능
+3. 해결책, 곤경</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>3, 해결책, 곤경</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>damage
+1. 우울, 불경기
+2. 해결책, 곤경
+3. 손해, 손상</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>3, 손해, 손상</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>garm
+1. 요청하다, 요구하다
+2. 복잡
+3. 손해, 손상</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>3, 손해, 손상</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>detriment
+1. 절멸, 전멸, 소멸
+2. 해결책, 곤경
+3. 손해, 손상</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>3, 손해, 손상</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>disfigurement
+1. 손해, 손상
+2. 절멸, 전멸, 소멸
+3. 복잡</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1, 손해, 손상</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>mischief
+1. 효율, 효능
+2. 손해, 손상
+3. 상, 소중한 것</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2, 손해, 손상</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>prize
+1. 요청하다, 요구하다
+2. 상, 소중한 것
+3. 조심</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2, 상, 소중한 것</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>award
+1. 조심
+2. 우울, 불경기
+3. 상, 소중한 것</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>3, 상, 소중한 것</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>reward
+1. 복잡
+2. 절멸, 전멸, 소멸
+3. 상, 소중한 것</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>3, 상, 소중한 것</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>treasure
 1. 해결책, 곤경
 2. 복잡
 3. 상, 소중한 것</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>1, 해결책, 곤경</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>damage
-1. 조심
-2. 손해, 손상
-3. 절멸, 전멸, 소멸</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2, 손해, 손상</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>garm
-1. 떨어지다, 습격하다
-2. 효율, 효능
-3. 손해, 손상</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>3, 손해, 손상</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>detriment
-1. 떨어지다, 습격하다
-2. 효율, 효능
-3. 손해, 손상</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>3, 손해, 손상</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>disfigurement
-1. 우울, 불경기
-2. 상, 소중한 것
-3. 손해, 손상</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>3, 손해, 손상</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>mischief
-1. 요청하다, 요구하다
-2. 효율, 효능
-3. 손해, 손상</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>3, 손해, 손상</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>prize
-1. 효율, 효능
-2. 조심
-3. 상, 소중한 것</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>3, 상, 소중한 것</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>award
-1. 효율, 효능
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>accolade
+1. 해결책, 곤경
 2. 떨어지다, 습격하다
 3. 상, 소중한 것</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>3, 상, 소중한 것</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>reward
-1. 떨어지다, 습격하다
-2. 해결책, 곤경
-3. 상, 소중한 것</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>3, 상, 소중한 것</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>treasure
-1. 상, 소중한 것
-2. 손해, 손상
-3. 효율, 효능</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>1, 상, 소중한 것</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>accolade
-1. 손해, 손상
-2. 조심
-3. 상, 소중한 것</t>
-        </is>
-      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>3, 상, 소중한 것</t>
@@ -1034,29 +1034,29 @@
       <c r="A41" t="inlineStr">
         <is>
           <t>complication
+1. 요청하다, 요구하다
+2. 우울, 불경기
+3. 복잡</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>3, 복잡</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>complexity
 1. 절멸, 전멸, 소멸
 2. 복잡
 3. 손해, 손상</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>2, 복잡</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>complexity
-1. 복잡
-2. 효율, 효능
-3. 절멸, 전멸, 소멸</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>1, 복잡</t>
         </is>
       </c>
     </row>
@@ -1064,41 +1064,41 @@
       <c r="A43" t="inlineStr">
         <is>
           <t>intricacy
-1. 효율, 효능
-2. 복잡
-3. 절멸, 전멸, 소멸</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2, 복잡</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>involution
-1. 효율, 효능
-2. 복잡
-3. 절멸, 전멸, 소멸</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2, 복잡</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>fall on
 1. 복잡
 2. 조심
 3. 떨어지다, 습격하다</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1, 복잡</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>involution
+1. 복잡
+2. 조심
+3. 요청하다, 요구하다</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1, 복잡</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>fall on
+1. 조심
+2. 우울, 불경기
+3. 떨어지다, 습격하다</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>3, 떨어지다, 습격하다</t>
@@ -1109,56 +1109,56 @@
       <c r="A46" t="inlineStr">
         <is>
           <t>fall from
+1. 우울, 불경기
+2. 떨어지다, 습격하다
+3. 효율, 효능</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2, 떨어지다, 습격하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>come off
+1. 우울, 불경기
+2. 요청하다, 요구하다
+3. 떨어지다, 습격하다</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>3, 떨어지다, 습격하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>pitch
+1. 떨어지다, 습격하다
+2. 조심
+3. 상, 소중한 것</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1, 떨어지다, 습격하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>chop upon
 1. 떨어지다, 습격하다
 2. 효율, 효능
 3. 요청하다, 요구하다</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>1, 떨어지다, 습격하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>come off
-1. 효율, 효능
-2. 요청하다, 요구하다
-3. 떨어지다, 습격하다</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>3, 떨어지다, 습격하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>pitch
-1. 떨어지다, 습격하다
-2. 해결책, 곤경
-3. 효율, 효능</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>1, 떨어지다, 습격하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>chop upon
-1. 떨어지다, 습격하다
-2. 복잡
-3. 손해, 손상</t>
-        </is>
-      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>1, 떨어지다, 습격하다</t>
@@ -1169,8 +1169,8 @@
       <c r="A50" t="inlineStr">
         <is>
           <t>attack
-1. 해결책, 곤경
-2. 복잡
+1. 우울, 불경기
+2. 효율, 효능
 3. 떨어지다, 습격하다</t>
         </is>
       </c>
@@ -1184,14 +1184,14 @@
       <c r="A51" t="inlineStr">
         <is>
           <t>assault
-1. 절멸, 전멸, 소멸
-2. 손해, 손상
-3. 떨어지다, 습격하다</t>
+1. 우울, 불경기
+2. 떨어지다, 습격하다
+3. 복잡</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3, 떨어지다, 습격하다</t>
+          <t>2, 떨어지다, 습격하다</t>
         </is>
       </c>
     </row>
@@ -1199,104 +1199,104 @@
       <c r="A52" t="inlineStr">
         <is>
           <t>assail
-1. 떨어지다, 습격하다
-2. 손해, 손상
-3. 효율, 효능</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>1, 떨어지다, 습격하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>call for
-1. 요청하다, 요구하다
-2. 절멸, 전멸, 소멸
-3. 해결책, 곤경</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>1, 요청하다, 요구하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>call on
-1. 복잡
-2. 요청하다, 요구하다
-3. 해결책, 곤경</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2, 요청하다, 요구하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>ask for
-1. 상, 소중한 것
-2. 요청하다, 요구하다
-3. 손해, 손상</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2, 요청하다, 요구하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>put in for
-1. 우울, 불경기
-2. 상, 소중한 것
-3. 요청하다, 요구하다</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>3, 요청하다, 요구하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>summon
-1. 요청하다, 요구하다
-2. 상, 소중한 것
-3. 조심</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>1, 요청하다, 요구하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>necessitate
 1. 떨어지다, 습격하다
 2. 절멸, 전멸, 소멸
 3. 요청하다, 요구하다</t>
         </is>
       </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1, 떨어지다, 습격하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>call for
+1. 요청하다, 요구하다
+2. 손해, 손상
+3. 해결책, 곤경</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1, 요청하다, 요구하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>call on
+1. 효율, 효능
+2. 우울, 불경기
+3. 요청하다, 요구하다</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>3, 요청하다, 요구하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ask for
+1. 요청하다, 요구하다
+2. 상, 소중한 것
+3. 절멸, 전멸, 소멸</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1, 요청하다, 요구하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>put in for
+1. 손해, 손상
+2. 해결책, 곤경
+3. 요청하다, 요구하다</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>3, 요청하다, 요구하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>summon
+1. 요청하다, 요구하다
+2. 손해, 손상
+3. 복잡</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1, 요청하다, 요구하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>necessitate
+1. 요청하다, 요구하다
+2. 상, 소중한 것
+3. 효율, 효능</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>3, 요청하다, 요구하다</t>
+          <t>1, 요청하다, 요구하다</t>
         </is>
       </c>
     </row>
@@ -1304,8 +1304,8 @@
       <c r="A59" t="inlineStr">
         <is>
           <t>demand
-1. 조심
-2. 절멸, 전멸, 소멸
+1. 복잡
+2. 조심
 3. 요청하다, 요구하다</t>
         </is>
       </c>
@@ -1320,8 +1320,8 @@
         <is>
           <t>stipulate
 1. 요청하다, 요구하다
-2. 해결책, 곤경
-3. 상, 소중한 것</t>
+2. 조심
+3. 복잡</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1334,14 +1334,14 @@
       <c r="A61" t="inlineStr">
         <is>
           <t>enjoin
-1. 요청하다, 요구하다
-2. 떨어지다, 습격하다
-3. 복잡</t>
+1. 절멸, 전멸, 소멸
+2. 요청하다, 요구하다
+3. 조심</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1, 요청하다, 요구하다</t>
+          <t>2, 요청하다, 요구하다</t>
         </is>
       </c>
     </row>
@@ -1349,8 +1349,8 @@
       <c r="A62" t="inlineStr">
         <is>
           <t>require
-1. 절멸, 전멸, 소멸
-2. 상, 소중한 것
+1. 손해, 손상
+2. 해결책, 곤경
 3. 요청하다, 요구하다</t>
         </is>
       </c>

--- a/학습자료/단답형/객관식_영어_유의어_Day03.xlsx
+++ b/학습자료/단답형/객관식_영어_유의어_Day03.xlsx
@@ -449,14 +449,14 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>extinction
-1. 해결책, 곤경
-2. 절멸, 전멸, 소멸
-3. 상, 소중한 것</t>
+1. 효율, 효능
+2. 손해, 손상
+3. 절멸, 전멸, 소멸</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2, 절멸, 전멸, 소멸</t>
+          <t>3, 절멸, 전멸, 소멸</t>
         </is>
       </c>
     </row>
@@ -464,119 +464,119 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>extermination
+1. 절멸, 전멸, 소멸
+2. 상, 소중한 것
+3. 요청하다, 요구하다</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1, 절멸, 전멸, 소멸</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>annihilation
 1. 떨어지다, 습격하다
+2. 조심
+3. 절멸, 전멸, 소멸</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3, 절멸, 전멸, 소멸</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>eradication
+1. 절멸, 전멸, 소멸
+2. 효율, 효능
+3. 해결책, 곤경</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1, 절멸, 전멸, 소멸</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>disappearance
+1. 손해, 손상
+2. 떨어지다, 습격하다
+3. 절멸, 전멸, 소멸</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3, 절멸, 전멸, 소멸</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>depression
+1. 우울, 불경기
+2. 복잡
+3. 조심</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1, 우울, 불경기</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>melancholy
+1. 요청하다, 요구하다
+2. 우울, 불경기
+3. 상, 소중한 것</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2, 우울, 불경기</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>dejection
+1. 복잡
+2. 우울, 불경기
+3. 상, 소중한 것</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2, 우울, 불경기</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>recession
+1. 상, 소중한 것
 2. 우울, 불경기
 3. 절멸, 전멸, 소멸</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>3, 절멸, 전멸, 소멸</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>annihilation
-1. 떨어지다, 습격하다
-2. 요청하다, 요구하다
-3. 절멸, 전멸, 소멸</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3, 절멸, 전멸, 소멸</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>eradication
-1. 손해, 손상
-2. 복잡
-3. 절멸, 전멸, 소멸</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>3, 절멸, 전멸, 소멸</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>disappearance
-1. 떨어지다, 습격하다
-2. 절멸, 전멸, 소멸
-3. 조심</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2, 절멸, 전멸, 소멸</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>depression
-1. 손해, 손상
-2. 우울, 불경기
-3. 절멸, 전멸, 소멸</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>2, 우울, 불경기</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>melancholy
-1. 우울, 불경기
-2. 해결책, 곤경
-3. 요청하다, 요구하다</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1, 우울, 불경기</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>dejection
-1. 떨어지다, 습격하다
-2. 절멸, 전멸, 소멸
-3. 우울, 불경기</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>3, 우울, 불경기</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>recession
-1. 손해, 손상
-2. 떨어지다, 습격하다
-3. 우울, 불경기</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>3, 우울, 불경기</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
           <t>slump
 1. 복잡
 2. 우울, 불경기
-3. 효율, 효능</t>
+3. 상, 소중한 것</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -599,44 +599,44 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>stagnation
+1. 떨어지다, 습격하다
+2. 우울, 불경기
+3. 효율, 효능</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2, 우울, 불경기</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>downturn
+1. 우울, 불경기
+2. 절멸, 전멸, 소멸
+3. 해결책, 곤경</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1, 우울, 불경기</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>efficiency
 1. 효율, 효능
 2. 우울, 불경기
-3. 떨어지다, 습격하다</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2, 우울, 불경기</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>downturn
-1. 우울, 불경기
-2. 복잡
-3. 요청하다, 요구하다</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1, 우울, 불경기</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>efficiency
-1. 복잡
-2. 효율, 효능
-3. 상, 소중한 것</t>
+3. 조심</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2, 효율, 효능</t>
+          <t>1, 효율, 효능</t>
         </is>
       </c>
     </row>
@@ -644,14 +644,14 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>efficacy
-1. 떨어지다, 습격하다
-2. 효율, 효능
-3. 우울, 불경기</t>
+1. 조심
+2. 절멸, 전멸, 소멸
+3. 효율, 효능</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2, 효율, 효능</t>
+          <t>3, 효율, 효능</t>
         </is>
       </c>
     </row>
@@ -659,9 +659,9 @@
       <c r="A16" t="inlineStr">
         <is>
           <t>potency
-1. 요청하다, 요구하다
+1. 해결책, 곤경
 2. 효율, 효능
-3. 손해, 손상</t>
+3. 요청하다, 요구하다</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -674,104 +674,104 @@
       <c r="A17" t="inlineStr">
         <is>
           <t>caution
+1. 절멸, 전멸, 소멸
+2. 우울, 불경기
+3. 조심</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>3, 조심</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>wariness
 1. 상, 소중한 것
 2. 요청하다, 요구하다
 3. 조심</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>3, 조심</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>wariness
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>heed
 1. 복잡
+2. 조심
+3. 우울, 불경기</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2, 조심</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>vigilance
+1. 해결책, 곤경
+2. 조심
+3. 상, 소중한 것</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2, 조심</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>prudence
+1. 효율, 효능
+2. 상, 소중한 것
+3. 조심</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>3, 조심</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>fix
+1. 우울, 불경기
+2. 떨어지다, 습격하다
+3. 해결책, 곤경</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>3, 해결책, 곤경</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>solution
+1. 해결책, 곤경
 2. 손해, 손상
 3. 조심</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>3, 조심</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>heed
-1. 손해, 손상
-2. 조심
-3. 우울, 불경기</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2, 조심</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>vigilance
-1. 해결책, 곤경
-2. 효율, 효능
-3. 조심</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>3, 조심</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>prudence
-1. 조심
-2. 손해, 손상
-3. 복잡</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1, 조심</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>fix
-1. 해결책, 곤경
-2. 복잡
-3. 효율, 효능</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>1, 해결책, 곤경</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>solution
-1. 떨어지다, 습격하다
-2. 요청하다, 요구하다
-3. 해결책, 곤경</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>3, 해결책, 곤경</t>
         </is>
       </c>
     </row>
@@ -779,14 +779,14 @@
       <c r="A24" t="inlineStr">
         <is>
           <t>remedy
-1. 해결책, 곤경
-2. 효율, 효능
-3. 떨어지다, 습격하다</t>
+1. 우울, 불경기
+2. 해결책, 곤경
+3. 효율, 효능</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1, 해결책, 곤경</t>
+          <t>2, 해결책, 곤경</t>
         </is>
       </c>
     </row>
@@ -794,14 +794,14 @@
       <c r="A25" t="inlineStr">
         <is>
           <t>antidote
-1. 조심
-2. 절멸, 전멸, 소멸
-3. 해결책, 곤경</t>
+1. 해결책, 곤경
+2. 떨어지다, 습격하다
+3. 상, 소중한 것</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3, 해결책, 곤경</t>
+          <t>1, 해결책, 곤경</t>
         </is>
       </c>
     </row>
@@ -809,14 +809,14 @@
       <c r="A26" t="inlineStr">
         <is>
           <t>answer
-1. 효율, 효능
+1. 해결책, 곤경
 2. 손해, 손상
-3. 해결책, 곤경</t>
+3. 우울, 불경기</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3, 해결책, 곤경</t>
+          <t>1, 해결책, 곤경</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
           <t>predicament
 1. 효율, 효능
 2. 해결책, 곤경
-3. 떨어지다, 습격하다</t>
+3. 우울, 불경기</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -839,14 +839,14 @@
       <c r="A28" t="inlineStr">
         <is>
           <t>difficulty
-1. 해결책, 곤경
-2. 효율, 효능
+1. 효율, 효능
+2. 해결책, 곤경
 3. 요청하다, 요구하다</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1, 해결책, 곤경</t>
+          <t>2, 해결책, 곤경</t>
         </is>
       </c>
     </row>
@@ -854,14 +854,14 @@
       <c r="A29" t="inlineStr">
         <is>
           <t>plight
-1. 해결책, 곤경
-2. 손해, 손상
-3. 조심</t>
+1. 떨어지다, 습격하다
+2. 효율, 효능
+3. 해결책, 곤경</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1, 해결책, 곤경</t>
+          <t>3, 해결책, 곤경</t>
         </is>
       </c>
     </row>
@@ -869,14 +869,14 @@
       <c r="A30" t="inlineStr">
         <is>
           <t>quandary
-1. 해결책, 곤경
-2. 조심
-3. 떨어지다, 습격하다</t>
+1. 상, 소중한 것
+2. 해결책, 곤경
+3. 효율, 효능</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1, 해결책, 곤경</t>
+          <t>2, 해결책, 곤경</t>
         </is>
       </c>
     </row>
@@ -885,13 +885,13 @@
         <is>
           <t>damage
 1. 조심
-2. 요청하다, 요구하다
-3. 손해, 손상</t>
+2. 손해, 손상
+3. 우울, 불경기</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3, 손해, 손상</t>
+          <t>2, 손해, 손상</t>
         </is>
       </c>
     </row>
@@ -900,55 +900,55 @@
         <is>
           <t>harm
 1. 효율, 효능
+2. 우울, 불경기
+3. 손해, 손상</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>3, 손해, 손상</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>detriment
+1. 복잡
+2. 상, 소중한 것
+3. 손해, 손상</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>3, 손해, 손상</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>disfigurement
+1. 조심
+2. 손해, 손상
+3. 상, 소중한 것</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2, 손해, 손상</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>mischief
+1. 절멸, 전멸, 소멸
 2. 손해, 손상
 3. 요청하다, 요구하다</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2, 손해, 손상</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>detriment
-1. 우울, 불경기
-2. 손해, 손상
-3. 조심</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2, 손해, 손상</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>disfigurement
-1. 우울, 불경기
-2. 효율, 효능
-3. 손해, 손상</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>3, 손해, 손상</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>mischief
-1. 떨어지다, 습격하다
-2. 손해, 손상
-3. 조심</t>
-        </is>
-      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>2, 손해, 손상</t>
@@ -959,254 +959,254 @@
       <c r="A36" t="inlineStr">
         <is>
           <t>prize
+1. 조심
+2. 상, 소중한 것
+3. 해결책, 곤경</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2, 상, 소중한 것</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>award
+1. 상, 소중한 것
+2. 요청하다, 요구하다
+3. 조심</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1, 상, 소중한 것</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>reward
+1. 절멸, 전멸, 소멸
+2. 상, 소중한 것
+3. 조심</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2, 상, 소중한 것</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>treasure
+1. 요청하다, 요구하다
+2. 절멸, 전멸, 소멸
+3. 상, 소중한 것</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>3, 상, 소중한 것</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>accolade
+1. 상, 소중한 것
+2. 복잡
+3. 조심</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1, 상, 소중한 것</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>complication
+1. 요청하다, 요구하다
+2. 우울, 불경기
+3. 복잡</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>3, 복잡</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>complexity
+1. 절멸, 전멸, 소멸
+2. 복잡
+3. 조심</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2, 복잡</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>intricacy
+1. 상, 소중한 것
+2. 우울, 불경기
+3. 복잡</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>3, 복잡</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>involution
+1. 손해, 손상
+2. 해결책, 곤경
+3. 복잡</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>3, 복잡</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>fall on
+1. 조심
+2. 떨어지다, 습격하다
+3. 손해, 손상</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2, 떨어지다, 습격하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>fall from
 1. 떨어지다, 습격하다
 2. 상, 소중한 것
 3. 조심</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2, 상, 소중한 것</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>award
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1, 떨어지다, 습격하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>come off
+1. 복잡
+2. 떨어지다, 습격하다
+3. 상, 소중한 것</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2, 떨어지다, 습격하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>pitch
 1. 떨어지다, 습격하다
-2. 상, 소중한 것
-3. 손해, 손상</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2, 상, 소중한 것</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>reward
-1. 상, 소중한 것
-2. 조심
-3. 떨어지다, 습격하다</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>1, 상, 소중한 것</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>treasure
-1. 손해, 손상
-2. 복잡
-3. 상, 소중한 것</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>3, 상, 소중한 것</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>accolade
-1. 복잡
-2. 상, 소중한 것
-3. 해결책, 곤경</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2, 상, 소중한 것</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>complication
-1. 요청하다, 요구하다
 2. 복잡
 3. 효율, 효능</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2, 복잡</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>complexity
-1. 복잡
-2. 떨어지다, 습격하다
-3. 우울, 불경기</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>1, 복잡</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>intricacy
-1. 절멸, 전멸, 소멸
-2. 복잡
-3. 조심</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2, 복잡</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>involution
-1. 해결책, 곤경
-2. 절멸, 전멸, 소멸
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1, 떨어지다, 습격하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>chop upon
+1. 떨어지다, 습격하다
+2. 요청하다, 요구하다
 3. 복잡</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>3, 복잡</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>fall on
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1, 떨어지다, 습격하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>attack
 1. 조심
 2. 떨어지다, 습격하다
-3. 복잡</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
+3. 해결책, 곤경</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>2, 떨어지다, 습격하다</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>fall from
-1. 떨어지다, 습격하다
-2. 절멸, 전멸, 소멸
-3. 조심</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>1, 떨어지다, 습격하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>come off
-1. 떨어지다, 습격하다
-2. 조심
-3. 복잡</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>1, 떨어지다, 습격하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>pitch
-1. 떨어지다, 습격하다
-2. 상, 소중한 것
-3. 우울, 불경기</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>1, 떨어지다, 습격하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>chop upon
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>assault
+1. 효율, 효능
+2. 떨어지다, 습격하다
+3. 손해, 손상</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2, 떨어지다, 습격하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>assail
 1. 해결책, 곤경
 2. 손해, 손상
 3. 떨어지다, 습격하다</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>3, 떨어지다, 습격하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>attack
-1. 요청하다, 요구하다
-2. 떨어지다, 습격하다
-3. 복잡</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2, 떨어지다, 습격하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>assault
-1. 떨어지다, 습격하다
-2. 절멸, 전멸, 소멸
-3. 손해, 손상</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>1, 떨어지다, 습격하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>assail
-1. 상, 소중한 것
-2. 떨어지다, 습격하다
-3. 절멸, 전멸, 소멸</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2, 떨어지다, 습격하다</t>
         </is>
       </c>
     </row>
@@ -1215,13 +1215,13 @@
         <is>
           <t>call for
 1. 복잡
-2. 요청하다, 요구하다
-3. 떨어지다, 습격하다</t>
+2. 떨어지다, 습격하다
+3. 요청하다, 요구하다</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2, 요청하다, 요구하다</t>
+          <t>3, 요청하다, 요구하다</t>
         </is>
       </c>
     </row>
@@ -1229,14 +1229,14 @@
       <c r="A54" t="inlineStr">
         <is>
           <t>call on
-1. 요청하다, 요구하다
-2. 손해, 손상
-3. 절멸, 전멸, 소멸</t>
+1. 해결책, 곤경
+2. 조심
+3. 요청하다, 요구하다</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1, 요청하다, 요구하다</t>
+          <t>3, 요청하다, 요구하다</t>
         </is>
       </c>
     </row>
@@ -1244,14 +1244,14 @@
       <c r="A55" t="inlineStr">
         <is>
           <t>ask for
-1. 요청하다, 요구하다
-2. 효율, 효능
-3. 해결책, 곤경</t>
+1. 복잡
+2. 요청하다, 요구하다
+3. 우울, 불경기</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1, 요청하다, 요구하다</t>
+          <t>2, 요청하다, 요구하다</t>
         </is>
       </c>
     </row>
@@ -1259,14 +1259,14 @@
       <c r="A56" t="inlineStr">
         <is>
           <t>put in for
-1. 요청하다, 요구하다
-2. 복잡
-3. 손해, 손상</t>
+1. 해결책, 곤경
+2. 상, 소중한 것
+3. 요청하다, 요구하다</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1, 요청하다, 요구하다</t>
+          <t>3, 요청하다, 요구하다</t>
         </is>
       </c>
     </row>
@@ -1274,8 +1274,8 @@
       <c r="A57" t="inlineStr">
         <is>
           <t>summon
-1. 절멸, 전멸, 소멸
-2. 복잡
+1. 손해, 손상
+2. 절멸, 전멸, 소멸
 3. 요청하다, 요구하다</t>
         </is>
       </c>
@@ -1289,14 +1289,14 @@
       <c r="A58" t="inlineStr">
         <is>
           <t>necessitate
-1. 요청하다, 요구하다
-2. 해결책, 곤경
-3. 손해, 손상</t>
+1. 조심
+2. 요청하다, 요구하다
+3. 복잡</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1, 요청하다, 요구하다</t>
+          <t>2, 요청하다, 요구하다</t>
         </is>
       </c>
     </row>
@@ -1304,14 +1304,14 @@
       <c r="A59" t="inlineStr">
         <is>
           <t>demand
-1. 우울, 불경기
-2. 요청하다, 요구하다
-3. 효율, 효능</t>
+1. 떨어지다, 습격하다
+2. 상, 소중한 것
+3. 요청하다, 요구하다</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2, 요청하다, 요구하다</t>
+          <t>3, 요청하다, 요구하다</t>
         </is>
       </c>
     </row>
@@ -1319,14 +1319,14 @@
       <c r="A60" t="inlineStr">
         <is>
           <t>stipulate
-1. 요청하다, 요구하다
-2. 해결책, 곤경
-3. 우울, 불경기</t>
+1. 복잡
+2. 요청하다, 요구하다
+3. 해결책, 곤경</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1, 요청하다, 요구하다</t>
+          <t>2, 요청하다, 요구하다</t>
         </is>
       </c>
     </row>
@@ -1335,8 +1335,8 @@
         <is>
           <t>enjoin
 1. 요청하다, 요구하다
-2. 해결책, 곤경
-3. 복잡</t>
+2. 조심
+3. 해결책, 곤경</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1349,8 +1349,8 @@
       <c r="A62" t="inlineStr">
         <is>
           <t>require
-1. 떨어지다, 습격하다
-2. 절멸, 전멸, 소멸
+1. 복잡
+2. 상, 소중한 것
 3. 요청하다, 요구하다</t>
         </is>
       </c>
